--- a/manufacture_list.xlsx
+++ b/manufacture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dataanalyst\Purchase App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EFECC4-51BC-4E9B-8111-69C2080978C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6AB68E-484D-44AB-BBEE-B26F1091AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Firm A Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm B Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm C Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm D Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm E Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm F Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm G Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Firm H Pvt Ltd</t>
+    <t>ARISTON GROUP</t>
+  </si>
+  <si>
+    <t>AALBERTS INTEGRATED PIPING SYSTEMS LTD</t>
+  </si>
+  <si>
+    <t>TAIZHOU EDWIN ELECTRIC CO., LTD</t>
+  </si>
+  <si>
+    <t>GOLDEN FALCON INDUSTRIAL CO., LIMITED</t>
+  </si>
+  <si>
+    <t>TAIZHOU HAIPAI IMPORT AND EXPORT CO.</t>
+  </si>
+  <si>
+    <t>SILVANO (NINGBO) INDUSTRY &amp; TRADE CO., LTD</t>
+  </si>
+  <si>
+    <t>ZHEJIANG ANRUI SUPPLY CHAIN MANAGEMENT CO., LTD</t>
+  </si>
+  <si>
+    <t>ARI BUILDING MATERIALS CO., LTD</t>
+  </si>
+  <si>
+    <t>THERMEX IKLIMLENDIRME VE ISITMA</t>
+  </si>
+  <si>
+    <t>OATEY SCS</t>
+  </si>
+  <si>
+    <t>THAI MELLEABLE IRON AND STEEL CO., LTD</t>
+  </si>
+  <si>
+    <t>ZHEJIANG HAPPY PUMP INDUSTRY CO., LTD</t>
+  </si>
+  <si>
+    <t>TAIZHOU GUANYA TRADING CO., LTD</t>
+  </si>
+  <si>
+    <t>FRESH ELECTRIC FOR HOME APPLIANCES</t>
+  </si>
+  <si>
+    <t>FOSHAN MOTAI KITCHEN TECHNOLOGY CO., LTD</t>
+  </si>
+  <si>
+    <t>PRIMARY CASTINGS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>ALLIED IRON PVT.LTD</t>
+  </si>
+  <si>
+    <t>HARIOM CASTING CO. PVT LTD</t>
+  </si>
+  <si>
+    <t>JAY REFRACTORIES</t>
+  </si>
+  <si>
+    <t>STAR ENTERPRISES</t>
+  </si>
+  <si>
+    <t>CHAOZHOU HANKE CERAMICS CO.,LTD</t>
+  </si>
+  <si>
+    <t>FERROLI SPA</t>
+  </si>
+  <si>
+    <t>HONGXING MGF GROUP</t>
+  </si>
+  <si>
+    <t>T.M.L SRI</t>
+  </si>
+  <si>
+    <t>HKBM BUILDING MATERIALS TRADING LLC</t>
   </si>
 </sst>
 </file>
@@ -369,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -425,6 +476,91 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
